--- a/output/【河洛話注音】漢語古詩.xlsx
+++ b/output/【河洛話注音】漢語古詩.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D0F604-AF0A-4DD7-82FF-373B8293B055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC4EA77B-FDF4-4D58-A0F9-3ACEA8430592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B71DDE0-E920-4870-A0E6-C0AE6D9E5335}"/>
   </bookViews>
   <sheets>
-    <sheet name="台羅拼音改良" sheetId="11" r:id="rId1"/>
-    <sheet name="閩拼標音" sheetId="10" r:id="rId2"/>
-    <sheet name="台羅拼音" sheetId="9" r:id="rId3"/>
-    <sheet name="白話字拼音" sheetId="8" r:id="rId4"/>
-    <sheet name="方音符號注音" sheetId="7" r:id="rId5"/>
-    <sheet name="十五音切語" sheetId="6" r:id="rId6"/>
-    <sheet name="漢字注音表" sheetId="5" r:id="rId7"/>
-    <sheet name="字庫表" sheetId="4" r:id="rId8"/>
-    <sheet name="缺字表" sheetId="3" r:id="rId9"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId10"/>
-    <sheet name="env" sheetId="2" r:id="rId11"/>
+    <sheet name="雙排注音" sheetId="12" r:id="rId1"/>
+    <sheet name="台羅改良式" sheetId="11" r:id="rId2"/>
+    <sheet name="閩拼標音" sheetId="10" r:id="rId3"/>
+    <sheet name="台羅拼音" sheetId="9" r:id="rId4"/>
+    <sheet name="白話字拼音" sheetId="8" r:id="rId5"/>
+    <sheet name="方音符號注音" sheetId="7" r:id="rId6"/>
+    <sheet name="十五音切語" sheetId="6" r:id="rId7"/>
+    <sheet name="漢字注音表" sheetId="5" r:id="rId8"/>
+    <sheet name="字庫表" sheetId="4" r:id="rId9"/>
+    <sheet name="缺字表" sheetId="3" r:id="rId10"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId11"/>
+    <sheet name="env" sheetId="2" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$3</definedName>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="2543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8268" uniqueCount="2865">
   <si>
     <t>Key</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -6769,970 +6770,7 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huī&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;時&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;童&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;才&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;知&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hau3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;父&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;別&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;piat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;素&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;soo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;清&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;濁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;泥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ninn5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;高&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;第&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tei7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;良&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;將&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;怯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khiap4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kei1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;志&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詩&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;二&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;大&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;且&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zoo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;長&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiang2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;窘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khun2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiap8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;促&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;修&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sei1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;趾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;步&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;poo7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;局&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;goo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siau1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hun3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;足&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;超&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thiau1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;邁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;mainn7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絕&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zuat8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;忽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hut4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;逐&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;賢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gi5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;豈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;類&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;稟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pin2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;性&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;在&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;富&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;貴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kui3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;籍&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;貧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;賤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zian7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;天&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;錄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;通&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;苟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;士&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;相&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;敖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;go5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;韓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;信&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;釣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiau3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;河&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khiok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;終&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hee7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sit8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ban7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鍾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;德&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;功&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;名&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;重&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嶽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gak8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;生&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;動&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;波&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;buan2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嚴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;giam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;song1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;其&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;柯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;co2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;植&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sit8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;太&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;文&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;質&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;所&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sei2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kee1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;灌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kuan3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;臨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lim5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;衡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gi7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;崇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;浮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;華&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hua5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;投&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;too5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;沙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;see1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;抱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;phau7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;玉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;giok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;龍&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;逢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lit4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;科&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;方&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kee1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;而&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;獨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;城&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;再&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;國&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;難&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;採&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bi5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蕪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;故&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;跪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;新&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;言&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;好&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;未&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bi7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jiak8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;姝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;色&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;手&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jiau2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;從&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;門&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;入&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;閤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khap4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;工&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;織&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zit4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;縑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kiam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jit8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;匹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;phit4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;五&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ngoonn2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;丈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiang7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;比&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;冉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jiam2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;竹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;結&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kiat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;根&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kin1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;泰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;婚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;菟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thoo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;附&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;女&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;婦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;會&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kue3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gi5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;思&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;軒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;車&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cia1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蕙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;花&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hua5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;含&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ham5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;光&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;輝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;過&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liang7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;執&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zip4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;節&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;妾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciap4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;西&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sei1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hun5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;齊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zei5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;交&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kau1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;soo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綺&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;窗&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;閣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;階&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;聲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;響&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiang2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;nainn2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;梁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;妻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cei3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;商&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;發&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;正&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;徘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;徊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;than5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘆&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;than3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;惜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;者&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zia2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;苦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khoo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;稀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;願&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;guan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;song1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鵠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;翅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;起&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iau5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;翼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;uan2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;羽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;由&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;inn5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;音&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;im1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;搖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iau5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;因&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;in1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;阿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;o1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;用&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;抑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;與&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;安&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;an1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;延&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;餘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">《漢語古詩》【台羅拼音改良式】
+    <t xml:space="preserve">《漢語古詩》【台羅改良式】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='漢語古詩' border='0' width='400' data-original-height='630' data-original-width='1200'
@@ -7740,7 +6778,1942 @@
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;時&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;童&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iau5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;才&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;知&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hau3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;父&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;別&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;piat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;素&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;soo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;清&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;濁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;泥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ninn5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;高&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;第&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tei7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;良&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;將&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;怯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khiap4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kei1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;志&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詩&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;二&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;大&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;且&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zoo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;長&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiang2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;窘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khun2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiap8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;促&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;修&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;翼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sei1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;uan2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;趾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;步&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;poo7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;局&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;goo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siau1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;羽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hun3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;足&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;超&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thiau1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;邁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;mainn7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絕&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zuat8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;忽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hut4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;逐&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;賢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gi5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;豈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;類&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;稟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pin2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;性&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;在&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;富&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;貴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kui3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;籍&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;貧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;賤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zian7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;天&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;錄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;通&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;苟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;由&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;inn5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;士&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;相&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;敖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;go5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;韓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;信&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;釣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiau3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;河&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khiok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;終&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hee7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sit8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ban7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鍾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;德&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;音&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;im1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;功&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;名&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;重&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嶽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gak8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;生&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;動&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;搖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iau5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;因&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;in1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;波&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;buan2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嚴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;giam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;song1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;其&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;柯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;co2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;植&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sit8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;太&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;阿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;o1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;文&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;質&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;所&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sei2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;用&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kee1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;灌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kuan3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;臨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lim5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;衡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gi7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;崇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;浮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;華&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hua5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;抑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;投&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;too5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;沙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;see1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;抱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;phau7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;玉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;giok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;龍&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;逢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;與&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;安&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;an1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lit4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;科&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;延&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;方&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kee1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;而&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;獨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;城&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;再&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;國&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;難&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;採&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cai2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bi5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蕪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;故&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;跪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;新&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;言&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;好&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;未&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bi7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jiak8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;姝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;色&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;手&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jiau2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;從&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;門&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;入&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;閤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khap4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;工&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;織&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zit4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;縑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kiam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jit8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;匹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;phit4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;五&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ngoonn2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;丈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiang7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;餘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;比&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;冉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jiam2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;竹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;結&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kiat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;根&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kin1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;泰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;婚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;菟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thoo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;附&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;女&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;婦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;會&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kue3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gi5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;思&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;軒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;車&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cia1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蕙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hui7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;花&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hua5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;含&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ham5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;光&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;輝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;過&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liang7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;執&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zip4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;節&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ziat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;妾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciap4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;西&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sei1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hun5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;齊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zei5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;交&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kau1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;soo1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綺&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;窗&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;閣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kok4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;階&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;聲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;響&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiang2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;nainn2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;梁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liang5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;妻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cei3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;商&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;發&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;正&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;徘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;徊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;than5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘆&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;than3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khai3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;惜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;者&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;zia2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;苦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khoo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;稀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hi1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;願&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;guan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;song1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鵠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;翅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;起&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">《漢語古詩》【雙排注音】
+&lt;div class='separator' style='clear: both'&gt;
+  &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
+    &lt;img alt='漢語古詩' border='0' width='400' data-original-height='630' data-original-width='1200'
+      src='https://img.guwenxuexi.com/wp-content/uploads/2016/09/2-17.jpg' /&gt;
+  &lt;/a&gt;
+&lt;/div&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;桓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;huan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;靈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;時&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;童&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄠˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iau5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;才&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄞˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cai5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;不&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;put4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;知&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;書&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄠ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hau3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;父&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;別&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;piat4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;素&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;soo3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;清&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;白&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pik8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;濁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;泥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄋㆪˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ninn5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;高&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;第&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆤ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tei7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;良&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liang5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;將&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ziang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;怯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧㄚㆴ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khiap4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kei1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;見&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kian3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;志&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zi3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;詩&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;二&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ji7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;大&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;to7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;且&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆦ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zoo1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;長&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄤˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiang2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;窘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄨㄣˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khun2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;loo7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄚㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiap8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;促&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;修&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;翼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ik8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;棲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sei1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;uan2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;趾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zi2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;步&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;poo7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;局&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kiok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;goo5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siau1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;羽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄣ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hun3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;此&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cian1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;足&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ziok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;超&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄧㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thiau1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;邁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄇㆮ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;mainn7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絕&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㄚㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zuat8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khi1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;忽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hut4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;逐&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;賢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;愚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gi5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;豈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khai2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siang5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;類&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lui7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;稟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄣˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pin2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;性&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;在&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄞ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zai7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;富&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;貴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kui3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;有&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jin5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;籍&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zik8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;貧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pin5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;賤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zian7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;天&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thian1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;錄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;通&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;塞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;苟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;由&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆪˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;inn5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;已&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;士&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;su7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;相&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;卜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tin5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;平&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;敖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;go5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;韓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;han5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;信&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;釣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄠ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiau3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;河&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khiok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;終&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ziong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄝ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hee7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zai2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;食&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sit8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ban7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鍾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ziong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;德&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;音&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;im1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;載&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;功&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;名&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;重&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嶽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄚㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gak8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zi1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;生&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ziu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;動&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tong7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;搖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄠˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iau5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;因&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;in1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;洪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;波&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pho1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;何&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;晚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;buan2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嚴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;giam5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;霜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;瘁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zui7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;其&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;柯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kho1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄞ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ai1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;哉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄞ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zai1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;芳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;co2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;植&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sit8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;太&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;阿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;o1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;文&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;質&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zi3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;所&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sei2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zo1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;用&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iong7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄝ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kee1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kang3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;灌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kuan3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;臨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆬˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lim5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;衡&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ui7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gi7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;崇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;浮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;華&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hua5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;抑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;投&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;too5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;南&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lam5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;沙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄝ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;see1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;抱&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄠ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;phau7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;玉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;giok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;龍&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;驥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;逢&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;與&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;和&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ho5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;安&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;an1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khong2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lit4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ui5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;世&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;su3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;科&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kho1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;李&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;延&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;方&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佳&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄝ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kee1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;而&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;獨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;立&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌ一ㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lip8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;城&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;再&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;國&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;難&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;上&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄤˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siang2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;採&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄞˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cai2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bi5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蕪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;故&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;夫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;跪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kui7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bun7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;新&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sin1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;復&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雖&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sui1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;言&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;好&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ho2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;未&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bi7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;若&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄚㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jiak8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;姝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gan5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;色&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;似&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;su7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;手&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;爪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄠˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jiau2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;從&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;門&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;bun5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;入&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆡ一ㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jip8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;閤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄚㆴ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khap4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khi3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;工&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;織&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zit4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;縑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kiam1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;日&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jit8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;匹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;phit4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;五&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄫㆧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ngoonn2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;丈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄤ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiang7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;餘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;i5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;來&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄞˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lai5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;比&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;冉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㆰˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;jiam2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孤&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;koo1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;竹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;結&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kiat4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;根&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kin1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;泰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;君&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;婚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hun1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;菟&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thoo3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;si1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;附&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;女&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蘿&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄜˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lo5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;婦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hu7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;會&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄨㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kue3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;宜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gi5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隔&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;思&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;su1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;令&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;軒&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hian1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;車&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cia1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ti5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;傷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;蕙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hui7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;花&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hua5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;含&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ham5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;iang5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;光&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;輝&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;過&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;隨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;秋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciu1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亮&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄤ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liang7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;執&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗ一ㆴ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zip4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;節&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ziat4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;妾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄚㆴ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ciap4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ik8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;西&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sei1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hun5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;齊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zei5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;交&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄠ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kau1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;疏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆦ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;soo1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;綺&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;窗&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;閣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kok4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;階&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄞ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;kai1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;絃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hian5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;聲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;響&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄤˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hiang2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;悲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pi1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;乃&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄋㆮˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;nainn2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;杞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;ki2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;梁&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;liang5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;妻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㆤ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;cei3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;商&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;siang1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;發&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;huat4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;正&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zing1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;徘&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄞˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;pai5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;徊&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;彈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;than5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘆&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;than3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khong2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;慨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄞ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khai3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;惜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;sik4&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;者&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;zia2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;苦&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khoo2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;但&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;tan7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;稀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hi1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;願&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;guan7&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雙&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;song1&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴻&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鵠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;gok8&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;翅&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;thi3&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;起&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;rt&gt;hui1&lt;/rt&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -8184,12 +9157,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4F12D6-6D25-45BF-9481-19E07D3D6898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9FAC219-A845-4D90-A2B1-555F236B270C}">
   <dimension ref="A1:A634"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -8198,12 +9169,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1483</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -8213,27 +9184,27 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>2221</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>2222</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>2223</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>2224</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>2515</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -8253,32 +9224,32 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>2225</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>2226</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>2227</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>2229</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>2230</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -8288,32 +9259,32 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>2225</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>2231</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>2232</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>2233</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>2234</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>2235</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -8323,37 +9294,37 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>2236</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>2237</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>2238</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>2239</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>2240</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>2241</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>2242</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -8363,37 +9334,37 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>2243</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>2244</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>2245</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>2246</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>2247</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>2241</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>2248</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -8413,27 +9384,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>2249</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>2250</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>2251</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>2252</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>2253</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -8453,57 +9424,57 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>2254</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>2255</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>2516</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>2256</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>2257</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>2258</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>2259</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>2260</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>2256</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>2261</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -8513,57 +9484,57 @@
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>2262</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>2517</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>2263</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>2264</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>2265</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>2518</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>2266</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>2267</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>2268</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="75" spans="1:1">
@@ -8573,57 +9544,57 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>2269</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>2270</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>2271</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>2272</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>2519</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>2273</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>2274</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>2275</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>2276</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>2277</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="87" spans="1:1">
@@ -8633,57 +9604,57 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>2278</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>2279</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>2280</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>2281</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>2282</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>2283</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>2284</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>2285</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>2286</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>2287</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="99" spans="1:1">
@@ -8693,57 +9664,57 @@
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>2288</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>2289</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>2290</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>2291</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>2292</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>2293</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>2294</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>2295</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>2238</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>2240</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -8753,57 +9724,57 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>2296</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>2297</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>2299</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>2300</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>2301</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>2263</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>2302</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>2303</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="123" spans="1:1">
@@ -8813,57 +9784,57 @@
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>2304</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>2305</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>2306</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>2521</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>2522</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>2250</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>2307</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>2308</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>2309</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -8873,57 +9844,57 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>2310</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>2311</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>2312</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>2276</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>2313</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>2314</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>2315</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>2316</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>2317</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>2318</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -8933,57 +9904,57 @@
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>2319</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>2235</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>2302</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>2320</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>2321</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>2322</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>2274</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>2323</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>2324</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>2325</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="159" spans="1:1">
@@ -8993,57 +9964,57 @@
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>2326</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>2523</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>2327</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>2275</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>2328</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>2329</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>2330</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>2331</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>2332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>2333</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="171" spans="1:1">
@@ -9053,57 +10024,57 @@
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>2222</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>2334</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>2335</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>2317</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>2336</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>2337</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>2524</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>2525</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>2338</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>2339</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="183" spans="1:1">
@@ -9113,57 +10084,57 @@
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>2340</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>2526</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>2527</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>2341</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>2342</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>2343</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>2344</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>2345</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>2346</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>2347</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="195" spans="1:1">
@@ -9173,57 +10144,57 @@
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>2528</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>2348</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>2252</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>2349</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>2350</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>2351</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>2352</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>2332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>2529</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="207" spans="1:1">
@@ -9233,57 +10204,57 @@
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>2353</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>2354</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>2255</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>2355</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>2297</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>2356</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>2223</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>2530</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>2357</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="219" spans="1:1">
@@ -9293,57 +10264,57 @@
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>2358</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>2359</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>2360</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>2361</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>2321</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>2531</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>2362</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>2363</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>2364</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>2365</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="231" spans="1:1">
@@ -9353,57 +10324,57 @@
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>2288</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>2227</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>2532</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>2530</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>2518</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>2366</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>996</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>2367</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>2368</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="243" spans="1:1">
@@ -9413,57 +10384,57 @@
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>2369</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>2370</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>2371</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>2372</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>2373</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>2374</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>2375</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>2533</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>2376</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="255" spans="1:1">
@@ -9473,57 +10444,57 @@
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>2534</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
-        <v>2377</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>2378</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>2379</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>2380</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>2535</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>2381</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>2310</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>2382</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>2383</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="267" spans="1:1">
@@ -9543,22 +10514,22 @@
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>2384</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>2536</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>2385</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
-        <v>2386</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="274" spans="1:1">
@@ -9578,57 +10549,57 @@
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="1" t="s">
-        <v>2387</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>2388</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>2389</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>2280</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>2381</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="1" t="s">
-        <v>2390</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>2391</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
-        <v>2392</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="288" spans="1:1">
@@ -9638,57 +10609,57 @@
     </row>
     <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
-        <v>2527</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
-        <v>2393</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
-        <v>2394</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="293" spans="1:1">
       <c r="A293" s="1" t="s">
-        <v>2395</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
-        <v>2396</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
-        <v>2393</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
-        <v>2394</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="299" spans="1:1">
       <c r="A299" s="1" t="s">
-        <v>2397</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="300" spans="1:1">
@@ -9698,72 +10669,72 @@
     </row>
     <row r="301" spans="1:1">
       <c r="A301" s="1" t="s">
-        <v>2398</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="303" spans="1:1">
       <c r="A303" s="1" t="s">
-        <v>2229</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
-        <v>2394</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="305" spans="1:1">
       <c r="A305" s="1" t="s">
-        <v>2395</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="306" spans="1:1">
       <c r="A306" s="1" t="s">
-        <v>2533</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="307" spans="1:1">
       <c r="A307" s="1" t="s">
-        <v>2394</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="308" spans="1:1">
       <c r="A308" s="1" t="s">
-        <v>2397</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="309" spans="1:1">
       <c r="A309" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>2389</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="311" spans="1:1">
       <c r="A311" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="312" spans="1:1">
       <c r="A312" s="1" t="s">
-        <v>2399</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="313" spans="1:1">
       <c r="A313" s="1" t="s">
-        <v>2396</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="314" spans="1:1">
       <c r="A314" s="1" t="s">
-        <v>2377</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="315" spans="1:1">
@@ -9783,27 +10754,27 @@
     </row>
     <row r="318" spans="1:1">
       <c r="A318" s="1" t="s">
-        <v>2400</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="319" spans="1:1">
       <c r="A319" s="1" t="s">
-        <v>2332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="320" spans="1:1">
       <c r="A320" s="1" t="s">
-        <v>2401</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" s="1" t="s">
-        <v>2402</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" s="1" t="s">
-        <v>2403</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="323" spans="1:1">
@@ -9823,57 +10794,57 @@
     </row>
     <row r="326" spans="1:1">
       <c r="A326" s="1" t="s">
-        <v>2400</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" s="1" t="s">
-        <v>2332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" s="1" t="s">
-        <v>2401</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" s="1" t="s">
-        <v>2402</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" s="1" t="s">
-        <v>2403</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" s="1" t="s">
-        <v>2320</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" s="1" t="s">
-        <v>2332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" s="1" t="s">
-        <v>2374</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="1" t="s">
-        <v>2404</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" s="1" t="s">
-        <v>2405</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="337" spans="1:1">
@@ -9883,57 +10854,57 @@
     </row>
     <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
-        <v>2257</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" s="1" t="s">
-        <v>2406</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
-        <v>2407</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" s="1" t="s">
-        <v>2404</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
-        <v>2405</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
-        <v>2408</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
-        <v>2409</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" s="1" t="s">
-        <v>2341</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
-        <v>2241</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="349" spans="1:1">
@@ -9943,57 +10914,57 @@
     </row>
     <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
-        <v>2408</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="351" spans="1:1">
       <c r="A351" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
-        <v>2410</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" s="1" t="s">
-        <v>2411</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
-        <v>2412</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
-        <v>2413</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" s="1" t="s">
-        <v>2414</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
-        <v>2404</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
-        <v>2415</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="361" spans="1:1">
@@ -10003,57 +10974,57 @@
     </row>
     <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
-        <v>2416</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="363" spans="1:1">
       <c r="A363" s="1" t="s">
-        <v>2417</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
-        <v>2292</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" s="1" t="s">
-        <v>2308</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
-        <v>2418</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
-        <v>2419</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" s="1" t="s">
-        <v>2420</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" s="1" t="s">
-        <v>2308</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
-        <v>2241</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="373" spans="1:1">
@@ -10063,57 +11034,57 @@
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
-        <v>2408</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
-        <v>2421</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" s="1" t="s">
-        <v>2422</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
-        <v>2423</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
-        <v>2404</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
-        <v>2421</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="1" t="s">
-        <v>2424</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
-        <v>2425</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="385" spans="1:1">
@@ -10123,57 +11094,57 @@
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
-        <v>2408</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
-        <v>2426</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" s="1" t="s">
-        <v>2427</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
-        <v>2428</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
-        <v>2404</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
-        <v>2426</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" s="1" t="s">
-        <v>2427</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
-        <v>2237</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="397" spans="1:1">
@@ -10183,57 +11154,57 @@
     </row>
     <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
-        <v>2427</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" s="1" t="s">
-        <v>2428</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
-        <v>2429</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="401" spans="1:1">
       <c r="A401" s="1" t="s">
-        <v>2527</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
-        <v>2430</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
-        <v>2427</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" s="1" t="s">
-        <v>2237</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
-        <v>2431</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" s="1" t="s">
-        <v>2432</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
-        <v>2537</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="409" spans="1:1">
@@ -10243,57 +11214,57 @@
     </row>
     <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
-        <v>2246</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" s="1" t="s">
-        <v>2428</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
-        <v>2433</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="413" spans="1:1">
       <c r="A413" s="1" t="s">
-        <v>2434</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
-        <v>2237</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
-        <v>2408</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" s="1" t="s">
-        <v>2241</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
-        <v>2404</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="421" spans="1:1">
@@ -10313,27 +11284,27 @@
     </row>
     <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
-        <v>2435</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" s="1" t="s">
-        <v>2435</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
-        <v>2436</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" s="1" t="s">
-        <v>2335</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
-        <v>2437</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="429" spans="1:1">
@@ -10353,57 +11324,57 @@
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>2435</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" s="1" t="s">
-        <v>2435</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="1" t="s">
-        <v>2436</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" s="1" t="s">
-        <v>2335</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" s="1" t="s">
-        <v>2437</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="438" spans="1:1">
       <c r="A438" s="1" t="s">
-        <v>2438</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" s="1" t="s">
-        <v>2439</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" s="1" t="s">
-        <v>2440</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="1" t="s">
-        <v>2332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" s="1" t="s">
-        <v>2529</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="443" spans="1:1">
@@ -10413,57 +11384,57 @@
     </row>
     <row r="444" spans="1:1">
       <c r="A444" s="1" t="s">
-        <v>2533</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" s="1" t="s">
-        <v>2441</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" s="1" t="s">
-        <v>2535</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="1" t="s">
-        <v>2408</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" s="1" t="s">
-        <v>2442</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" s="1" t="s">
-        <v>2443</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="451" spans="1:1">
       <c r="A451" s="1" t="s">
-        <v>2444</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" s="1" t="s">
-        <v>2445</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" s="1" t="s">
-        <v>2446</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" s="1" t="s">
-        <v>2447</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="455" spans="1:1">
@@ -10473,57 +11444,57 @@
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="1" t="s">
-        <v>2443</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" s="1" t="s">
-        <v>2444</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" s="1" t="s">
-        <v>2335</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" s="1" t="s">
-        <v>2223</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" s="1" t="s">
-        <v>2405</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="463" spans="1:1">
       <c r="A463" s="1" t="s">
-        <v>2448</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" s="1" t="s">
-        <v>2449</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="1" t="s">
-        <v>2450</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="467" spans="1:1">
@@ -10533,57 +11504,57 @@
     </row>
     <row r="468" spans="1:1">
       <c r="A468" s="1" t="s">
-        <v>2275</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" s="1" t="s">
-        <v>2276</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" s="1" t="s">
-        <v>2518</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" s="1" t="s">
-        <v>2438</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" s="1" t="s">
-        <v>2442</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" s="1" t="s">
-        <v>2538</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" s="1" t="s">
-        <v>2538</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="476" spans="1:1">
       <c r="A476" s="1" t="s">
-        <v>2451</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" s="1" t="s">
-        <v>2332</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" s="1" t="s">
-        <v>2452</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="479" spans="1:1">
@@ -10593,57 +11564,57 @@
     </row>
     <row r="480" spans="1:1">
       <c r="A480" s="1" t="s">
-        <v>2453</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" s="1" t="s">
-        <v>2441</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" s="1" t="s">
-        <v>2454</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" s="1" t="s">
-        <v>2298</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" s="1" t="s">
-        <v>2455</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" s="1" t="s">
-        <v>2456</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" s="1" t="s">
-        <v>2457</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="488" spans="1:1">
       <c r="A488" s="1" t="s">
-        <v>2433</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" s="1" t="s">
-        <v>2341</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" s="1" t="s">
-        <v>2458</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="491" spans="1:1">
@@ -10653,57 +11624,57 @@
     </row>
     <row r="492" spans="1:1">
       <c r="A492" s="1" t="s">
-        <v>2459</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" s="1" t="s">
-        <v>2460</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" s="1" t="s">
-        <v>2461</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" s="1" t="s">
-        <v>2340</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" s="1" t="s">
-        <v>2462</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>2463</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="1" t="s">
-        <v>2539</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>2540</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="1" t="s">
-        <v>2464</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>2465</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="503" spans="1:1">
@@ -10713,57 +11684,57 @@
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
-        <v>2466</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="1" t="s">
-        <v>2223</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
-        <v>2390</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
-        <v>2401</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
-        <v>2246</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="1" t="s">
-        <v>2467</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
-        <v>2468</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="1" t="s">
-        <v>2350</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>1107</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="515" spans="1:1">
@@ -10773,57 +11744,57 @@
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
-        <v>2441</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="1" t="s">
-        <v>2469</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
-        <v>2470</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="1" t="s">
-        <v>2243</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>2471</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>2301</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="1" t="s">
-        <v>2472</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>2541</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="1" t="s">
-        <v>2341</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>2535</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="527" spans="1:1">
@@ -10843,27 +11814,27 @@
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>2473</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="1" t="s">
-        <v>2387</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="1" t="s">
-        <v>2243</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
-        <v>2474</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="535" spans="1:1">
@@ -10883,57 +11854,57 @@
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>2473</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="1" t="s">
-        <v>2387</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="1" t="s">
-        <v>2243</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
-        <v>2474</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>2400</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="1" t="s">
-        <v>2533</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>2364</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="1" t="s">
-        <v>2475</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
-        <v>2476</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="549" spans="1:1">
@@ -10943,57 +11914,57 @@
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
-        <v>2477</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="1" t="s">
-        <v>2478</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
-        <v>2438</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="1" t="s">
-        <v>2479</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
-        <v>2480</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>2529</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="1" t="s">
-        <v>2481</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>2482</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="1" t="s">
-        <v>2331</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>2483</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="561" spans="1:1">
@@ -11003,57 +11974,57 @@
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>2400</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>2484</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="1" t="s">
-        <v>2386</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
-        <v>2485</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>2523</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="1" t="s">
-        <v>2486</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="1" t="s">
-        <v>2527</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="1" t="s">
-        <v>2341</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="1" t="s">
-        <v>2487</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="573" spans="1:1">
@@ -11063,57 +12034,57 @@
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="1" t="s">
-        <v>2285</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="1" t="s">
-        <v>2286</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="1" t="s">
-        <v>2535</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="1" t="s">
-        <v>2274</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="1" t="s">
-        <v>2318</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="1" t="s">
-        <v>2263</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="1" t="s">
-        <v>2488</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="1" t="s">
-        <v>2489</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="1" t="s">
-        <v>2490</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="1" t="s">
-        <v>2491</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="585" spans="1:1">
@@ -11123,57 +12094,57 @@
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="1" t="s">
-        <v>2238</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="1" t="s">
-        <v>2492</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="1" t="s">
-        <v>2467</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="1" t="s">
-        <v>2493</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="1" t="s">
-        <v>2494</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="1" t="s">
-        <v>2495</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="1" t="s">
-        <v>2318</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="1" t="s">
-        <v>2496</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="1" t="s">
-        <v>2497</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="1" t="s">
-        <v>2498</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="597" spans="1:1">
@@ -11183,57 +12154,57 @@
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="1" t="s">
-        <v>2527</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="1" t="s">
-        <v>2499</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="1" t="s">
-        <v>2396</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="1" t="s">
-        <v>2482</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="1" t="s">
-        <v>2500</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="1" t="s">
-        <v>2501</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="1" t="s">
-        <v>2502</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="1" t="s">
-        <v>2520</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="1" t="s">
-        <v>2537</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="1" t="s">
-        <v>2528</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="609" spans="1:1">
@@ -11243,57 +12214,57 @@
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="1" t="s">
-        <v>2228</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="1" t="s">
-        <v>2503</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="1" t="s">
-        <v>2386</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="1" t="s">
-        <v>2504</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="1" t="s">
-        <v>2505</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="1" t="s">
-        <v>2506</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="1" t="s">
-        <v>2459</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="1" t="s">
-        <v>2229</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="1" t="s">
-        <v>2523</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="1" t="s">
-        <v>2507</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="621" spans="1:1">
@@ -11303,57 +12274,57 @@
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="1" t="s">
-        <v>2508</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="1" t="s">
-        <v>2535</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="1" t="s">
-        <v>2509</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="1" t="s">
-        <v>2510</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="1" t="s">
-        <v>2511</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="1" t="s">
-        <v>870</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="1" t="s">
-        <v>2273</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="1" t="s">
-        <v>2512</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="1" t="s">
-        <v>2513</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="1" t="s">
-        <v>2243</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="1" t="s">
-        <v>2514</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="633" spans="1:1">
@@ -11373,10 +12344,48 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B0F274-6AA6-4D10-910F-0CA423BBFD2A}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2">
+        <v>512</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1016F255-582D-4D28-8157-CA08CDA83487}">
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -11666,7 +12675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6C389A-B5B1-4E88-B0BB-4A0909BB4BC9}">
   <dimension ref="B1:C5"/>
   <sheetViews>
@@ -11732,12 +12741,3197 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF212E5-71C0-4B7B-A56D-4E723D34143B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4791CB-C8BA-49F4-96A8-3DD63F80FAE7}">
   <dimension ref="A1:A634"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="25.5"/>
+  <cols>
+    <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="204">
+      <c r="A1" s="1" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="1" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="1" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="1" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="1" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="1" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="1" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="1" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="1" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="1" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="1" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="1" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="1" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="1" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="1" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="1" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="1" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="1" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="1" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="1" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="1" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="1" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="1" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="1" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="1" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="1" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="1" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="1" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="1" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="1" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="1" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="1" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="1" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="1" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="1" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="1" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="1" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="1" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="1" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="1" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="1" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="1" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="1" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="1" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="1" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="1" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="1" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="1" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="1" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="1" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="1" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="1" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="1" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="1" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="1" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="1" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="1" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="1" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="1" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="1" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="1" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="1" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="1" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="1" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="1" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="1" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="1" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="1" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="1" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="1" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="1" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="1" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="1" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="1" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="1" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="1" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="1" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="1" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="1" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="1" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="1" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" s="1" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" s="1" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" s="1" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" s="1" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" s="1" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" s="1" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" s="1" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="1" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" s="1" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="1" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="1" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="1" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" s="1" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" s="1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" s="1" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="1" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1">
+      <c r="A336" s="1" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1">
+      <c r="A337" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" s="1" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1">
+      <c r="A340" s="1" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1">
+      <c r="A342" s="1" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="1" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1">
+      <c r="A356" s="1" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1">
+      <c r="A363" s="1" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="1" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="1" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="1" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="1" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="1" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="1" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="1" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="1" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="1" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="1" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="1" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="1" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="1" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="1" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="1" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="1" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="1" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="1" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="1" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="1" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="1" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="1" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="1" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="1" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="1" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="1" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="1" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="1" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="1" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="1" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="1" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="1" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="1" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="1" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="1" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="1" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="1" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="1" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="1" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="1" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="1" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="1" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="1" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="1" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="1" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="1" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="1" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="1" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="1" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="1" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="1" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="1" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="1" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="1" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="1" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="1" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="1" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="1" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="1" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="1" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="1" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="1" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="1" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="1" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="1" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="1" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="1" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="1" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="1" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="1" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="1" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="1" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="1" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="1" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="1" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="1" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="1" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="1" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="1" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="1" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="1" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="1" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" s="1" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="1" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="1" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" s="1" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" s="1" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" s="1" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" s="1" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" s="1" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" s="1" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1">
+      <c r="A551" s="1" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1">
+      <c r="A552" s="1" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" s="1" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" s="1" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" s="1" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="1" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" s="1" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" s="1" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="1" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="1" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="1" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="1" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="1" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="1" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="1" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" s="1" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" s="1" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1">
+      <c r="A576" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="1" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="1" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" s="1" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="1" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="1" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="1" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" s="1" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" s="1" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" s="1" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1">
+      <c r="A589" s="1" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" s="1" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" s="1" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" s="1" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" s="1" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" s="1" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" s="1" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" s="1" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="1" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="1" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" s="1" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1">
+      <c r="A602" s="1" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" s="1" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" s="1" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" s="1" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" s="1" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" s="1" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" s="1" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" s="1" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" s="1" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" s="1" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" s="1" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" s="1" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="1" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="1" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="1" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="1" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" s="1" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" s="1" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" s="1" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="1" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" s="1" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" s="1" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" s="1" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" s="1" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" s="1" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" s="1" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965231EE-FFD4-4BD7-A931-5BDE7D9BBD12}">
+  <dimension ref="A1:A634"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -14920,13 +19114,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B97F29B-CABB-4B8D-B3F6-4DB7F547C36C}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F931440-6CD6-45D1-9305-9287C080245A}">
   <dimension ref="A1:A634"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -18109,13 +22301,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305EAD53-CB16-45D0-8793-3FE3BBFA9F12}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED341BFC-CD25-493A-969B-F1E730DFB572}">
   <dimension ref="A1:A634"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
@@ -21298,8 +25488,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83439581-97D4-45BB-A95A-7C95DEB6334B}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0753363B-0747-46FB-B995-DCF5FF72505F}">
   <dimension ref="A1:A634"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24485,8 +28675,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D465AB-B0FA-4E96-90AF-081D146E013F}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D9B40B-C303-4BC3-9D74-9F40A9FD89D7}">
   <dimension ref="A1:A634"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -27672,7 +31862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6425ECC-317F-4789-9272-51C68BADDDB4}">
   <dimension ref="A1:G631"/>
   <sheetViews>
@@ -38535,7 +42725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06E93BA-C401-4742-8990-3138CE024C9E}">
   <dimension ref="A1:H269"/>
   <sheetViews>
@@ -45541,42 +49731,4 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B0F274-6AA6-4D10-910F-0CA423BBFD2A}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.5"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C2">
-        <v>512</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>